--- a/Параметры модели.xlsx
+++ b/Параметры модели.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Свойства компонентов" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="Бинарные коэффициенты" sheetId="3" r:id="rId3"/>
     <sheet name="Коэффициенты Вильсона" sheetId="4" r:id="rId4"/>
     <sheet name="Лист1" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="298">
   <si>
     <t>№</t>
   </si>
@@ -1174,15 +1175,393 @@
   <si>
     <t>FeedTray2-1]</t>
   </si>
+  <si>
+    <t>(216,82969648391,</t>
+  </si>
+  <si>
+    <t>(216.82969648391.</t>
+  </si>
+  <si>
+    <t>310.465165041387.</t>
+  </si>
+  <si>
+    <t>313.751064054668.</t>
+  </si>
+  <si>
+    <t>315.634660981596.</t>
+  </si>
+  <si>
+    <t>316.926129348576.</t>
+  </si>
+  <si>
+    <t>318.239376880229.</t>
+  </si>
+  <si>
+    <t>330.04488106817.</t>
+  </si>
+  <si>
+    <t>328.823373280466.</t>
+  </si>
+  <si>
+    <t>327.562011964619.</t>
+  </si>
+  <si>
+    <t>326.356089673936.</t>
+  </si>
+  <si>
+    <t>325.299797020853.</t>
+  </si>
+  <si>
+    <t>324.47085250169.</t>
+  </si>
+  <si>
+    <t>323.918862454593.</t>
+  </si>
+  <si>
+    <t>323.655080609024.</t>
+  </si>
+  <si>
+    <t>323.636556603014.</t>
+  </si>
+  <si>
+    <t>323.735952936113.</t>
+  </si>
+  <si>
+    <t>323.713641799986.</t>
+  </si>
+  <si>
+    <t>323.293757997453.</t>
+  </si>
+  <si>
+    <t>322.267376072705.</t>
+  </si>
+  <si>
+    <t>321.315140835941.</t>
+  </si>
+  <si>
+    <t>320.606751181185.</t>
+  </si>
+  <si>
+    <t>320.179989747703.</t>
+  </si>
+  <si>
+    <t>319.952540285885.</t>
+  </si>
+  <si>
+    <t>319.842073880136.</t>
+  </si>
+  <si>
+    <t>319.795526377857.</t>
+  </si>
+  <si>
+    <t>319.783221371472.</t>
+  </si>
+  <si>
+    <t>319.789307378232.</t>
+  </si>
+  <si>
+    <t>319.805418513715.</t>
+  </si>
+  <si>
+    <t>319.827121682465.</t>
+  </si>
+  <si>
+    <t>319.852023012936.</t>
+  </si>
+  <si>
+    <t>319.878811575472.</t>
+  </si>
+  <si>
+    <t>319.906771741807.</t>
+  </si>
+  <si>
+    <t>319.935491867363.</t>
+  </si>
+  <si>
+    <t>319.964762963355.</t>
+  </si>
+  <si>
+    <t>319.994477368891.</t>
+  </si>
+  <si>
+    <t>320.024603419006.</t>
+  </si>
+  <si>
+    <t>320.055160112679.</t>
+  </si>
+  <si>
+    <t>320.086229778826.</t>
+  </si>
+  <si>
+    <t>320.117932744324.</t>
+  </si>
+  <si>
+    <t>320.150465331972.</t>
+  </si>
+  <si>
+    <t>320.184074528515.</t>
+  </si>
+  <si>
+    <t>320.219127647579.</t>
+  </si>
+  <si>
+    <t>320.256093330681.</t>
+  </si>
+  <si>
+    <t>320.295611210167.</t>
+  </si>
+  <si>
+    <t>320.338542573154.</t>
+  </si>
+  <si>
+    <t>320.386014692485.</t>
+  </si>
+  <si>
+    <t>320.439547486603.</t>
+  </si>
+  <si>
+    <t>320.501161180437.</t>
+  </si>
+  <si>
+    <t>320.573559962213.</t>
+  </si>
+  <si>
+    <t>320.660410635173.</t>
+  </si>
+  <si>
+    <t>320.766766928136.</t>
+  </si>
+  <si>
+    <t>320.899753458798.</t>
+  </si>
+  <si>
+    <t>321.069857664406.</t>
+  </si>
+  <si>
+    <t>321.293330006301.</t>
+  </si>
+  <si>
+    <t>321.597161702812.</t>
+  </si>
+  <si>
+    <t>322.029787488282.</t>
+  </si>
+  <si>
+    <t>322.686271928251.</t>
+  </si>
+  <si>
+    <t>323.780049569905.</t>
+  </si>
+  <si>
+    <t>326.039294339716.</t>
+  </si>
+  <si>
+    <t>337.075225822628)</t>
+  </si>
+  <si>
+    <t>Tj</t>
+  </si>
+  <si>
+    <t>Tj0</t>
+  </si>
+  <si>
+    <t>311,343361251056,</t>
+  </si>
+  <si>
+    <t>314,240547455847,</t>
+  </si>
+  <si>
+    <t>315,833472646773,</t>
+  </si>
+  <si>
+    <t>316,85033608228,</t>
+  </si>
+  <si>
+    <t>317,583766393363,</t>
+  </si>
+  <si>
+    <t>318,202189542353,</t>
+  </si>
+  <si>
+    <t>319,075173698366,</t>
+  </si>
+  <si>
+    <t>330,312165059149,</t>
+  </si>
+  <si>
+    <t>329,533631168306,</t>
+  </si>
+  <si>
+    <t>328,82097940892,</t>
+  </si>
+  <si>
+    <t>328,222505189478,</t>
+  </si>
+  <si>
+    <t>327,765427716076,</t>
+  </si>
+  <si>
+    <t>327,438999898732,</t>
+  </si>
+  <si>
+    <t>327,168593741953,</t>
+  </si>
+  <si>
+    <t>326,782743446529,</t>
+  </si>
+  <si>
+    <t>326,025355421007,</t>
+  </si>
+  <si>
+    <t>324,744026176631,</t>
+  </si>
+  <si>
+    <t>323,175565339625,</t>
+  </si>
+  <si>
+    <t>321,796492673457,</t>
+  </si>
+  <si>
+    <t>320,799799822271,</t>
+  </si>
+  <si>
+    <t>320,257385261357,</t>
+  </si>
+  <si>
+    <t>319,983109645545,</t>
+  </si>
+  <si>
+    <t>319,854258559644,</t>
+  </si>
+  <si>
+    <t>319,800516776741,</t>
+  </si>
+  <si>
+    <t>319,785361923277,</t>
+  </si>
+  <si>
+    <t>319,790282659233,</t>
+  </si>
+  <si>
+    <t>319,805906154215,</t>
+  </si>
+  <si>
+    <t>319,827394001186,</t>
+  </si>
+  <si>
+    <t>319,852187670767,</t>
+  </si>
+  <si>
+    <t>319,878925569355,</t>
+  </si>
+  <si>
+    <t>319,906860403717,</t>
+  </si>
+  <si>
+    <t>319,935567863286,</t>
+  </si>
+  <si>
+    <t>319,964832626283,</t>
+  </si>
+  <si>
+    <t>319,99454703182,</t>
+  </si>
+  <si>
+    <t>320,024679414928,</t>
+  </si>
+  <si>
+    <t>320,055248774588,</t>
+  </si>
+  <si>
+    <t>320,086337439716,</t>
+  </si>
+  <si>
+    <t>320,118072070181,</t>
+  </si>
+  <si>
+    <t>320,150636322796,</t>
+  </si>
+  <si>
+    <t>320,184302516282,</t>
+  </si>
+  <si>
+    <t>320,219425298274,</t>
+  </si>
+  <si>
+    <t>320,256485976279,</t>
+  </si>
+  <si>
+    <t>320,296136848629,</t>
+  </si>
+  <si>
+    <t>320,33923920244,</t>
+  </si>
+  <si>
+    <t>320,386951975524,</t>
+  </si>
+  <si>
+    <t>320,440795086324,</t>
+  </si>
+  <si>
+    <t>320,502814091742,</t>
+  </si>
+  <si>
+    <t>320,575763843954,</t>
+  </si>
+  <si>
+    <t>320,663336478174,</t>
+  </si>
+  <si>
+    <t>320,770642720163,</t>
+  </si>
+  <si>
+    <t>320,904895849526,</t>
+  </si>
+  <si>
+    <t>321,076665632427,</t>
+  </si>
+  <si>
+    <t>321,302367188036,</t>
+  </si>
+  <si>
+    <t>321,609213389456,</t>
+  </si>
+  <si>
+    <t>322,046044282615,</t>
+  </si>
+  <si>
+    <t>322,708646394312,</t>
+  </si>
+  <si>
+    <t>323,811993189156,</t>
+  </si>
+  <si>
+    <t>326,08940731734,</t>
+  </si>
+  <si>
+    <t>337,199333496392)</t>
+  </si>
+  <si>
+    <t>UniSim</t>
+  </si>
+  <si>
+    <t>&lt;empty&gt;</t>
+  </si>
+  <si>
+    <t>Net Liquid</t>
+  </si>
+  <si>
+    <t>Net Vapor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,14 +1570,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1226,16 +1597,6 @@
     <font>
       <b/>
       <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <vertAlign val="superscript"/>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
@@ -1318,35 +1679,35 @@
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1362,6 +1723,1369 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="5.7670701777149579E-2"/>
+          <c:y val="4.0212416712658787E-2"/>
+          <c:w val="0.92553724108827284"/>
+          <c:h val="0.89496926685508194"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tj</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$4:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$B$4:$B$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>-56.320303516089979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37.315165041387047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40.601064054668029</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.484660981596051</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.776129348576035</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.089376880228997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.894881068170037</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.673373280466024</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.412011964619012</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>53.206089673936049</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.149797020853043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.320852501690013</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.768862454593034</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>50.505080609024048</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.486556603014037</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>50.585952936113017</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.563641799986044</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>50.143757997453008</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>49.117376072705042</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.165140835941031</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.456751181185041</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.029989747703041</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.802540285885016</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.692073880136036</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.645526377857038</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.633221371472018</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.639307378232047</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.655418513715006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.677121682465042</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.702023012936024</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.728811575472037</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.756771741807029</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.785491867363021</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.814762963355008</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.844477368891035</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.874603419006007</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.905160112679027</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.936229778826032</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.967932744324003</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47.000465331972009</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.034074528515021</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.069127647579023</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.106093330681006</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.145611210167033</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.188542573153995</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.236014692485014</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.289547486602999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.351161180437032</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.423559962213005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.510410635173002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.61676692813603</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.749753458798011</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47.919857664406038</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.143330006301028</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.447161702812025</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.879787488282034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.53627192825104</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50.630049569904997</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.889294339716002</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>63.925225822628022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>UniSim</c:v>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$4:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$C$4:$C$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>48.145792481508302</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>48.612673703055897</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>48.815604124701203</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>48.949817366064202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>49.060551952991702</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49.1757330635252</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>49.365218429744701</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50.098814769638601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>54.9304372144057</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.425871612404798</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.634300187658503</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.727116490010197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>55.772383566195899</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.796349564240998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>55.8086893064945</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>55.812446047327199</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.807775959673599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>55.792974394365203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>55.762966160706597</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.693183342525302</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.321749373769897</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>55.366938231119697</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>55.408946855401503</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.4509797147754</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.494936470403097</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.542364171471299</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>55.5948995814366</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>55.654478496189</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>55.723466100425902</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>55.804774839620897</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>55.901510072715197</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>56.017156934529503</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>56.156674252547603</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>56.326876057659298</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>56.535382945246901</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>56.791190824252404</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>57.105691421940598</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>57.487552772947403</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>57.934132872460999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>58.450790055737102</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>59.048696643164</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>59.710389513720003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>60.424902773081698</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>61.178644985312502</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>61.943794589116401</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>62.694245050053702</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>63.407447734421098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>64.064431857052696</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>64.6508904542371</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>65.161392996739906</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>65.599175290248098</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>65.970299754119907</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>66.287990719499803</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66.575722891705695</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66.876096865605504</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>67.280524669171001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>68.037750706442907</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>70.173857746195907</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>80.008341499703505</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>119.80299203067899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист2!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tj0</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист2!$A$4:$A$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист2!$D$4:$D$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>-56.320303516089979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38.193361251056047</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.090547455847002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>42.683472646772998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43.700336082280046</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44.433766393363044</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45.052189542353005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45.925173698365995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.162165059149004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>56.38363116830601</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.670979408920005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.072505189478022</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>54.615427716075999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>54.288999898732015</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.018593741952998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.632743446529048</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.875355421007043</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.594026176631019</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>50.025565339625018</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>48.646492673457033</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.649799822271007</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.107385261357024</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.833109645545051</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.704258559644018</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.650516776741028</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>46.635361923277003</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.640282659233037</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>46.655906154215018</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>46.67739400118603</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.702187670767046</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>46.728925569354999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>46.756860403717042</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.785567863286019</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.814832626283021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.844547031820014</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>46.874679414928039</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>46.905248774588017</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>46.936337439715999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>46.968072070180995</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>47.000636322796026</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.034302516282025</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.069425298274041</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.106485976279032</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.146136848628998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>47.189239202440035</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>47.23695197552405</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47.29079508632401</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.352814091742005</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.42576384395403</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.51333647817404</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>47.620642720163005</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>47.754895849526008</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>47.926665632427046</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.15236718803601</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>48.459213389456011</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>48.896044282615037</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>49.558646394312007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>50.661993189156021</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>52.939407317339999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>64.049333496392023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="91217920"/>
+        <c:axId val="91176256"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="91217920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tray No</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91176256"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="91176256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Tray</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> temperature, K</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="8.3594559475184144E-3"/>
+              <c:y val="0.16073821583870457"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="91217920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609598</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -15031,10 +16755,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE155"/>
+  <dimension ref="A1:AE156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="K125" sqref="K125:K155"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15141,7 +16865,7 @@
         <v>40.226000976562503</v>
       </c>
       <c r="E3">
-        <v>4075.8995489501958</v>
+        <v>4022.6000976562505</v>
       </c>
       <c r="F3">
         <v>0.187000006437302</v>
@@ -15212,7 +16936,7 @@
         <v>41.540600585937504</v>
       </c>
       <c r="E4">
-        <v>4209.1013543701174</v>
+        <v>4154.06005859375</v>
       </c>
       <c r="F4">
         <v>0.210565000772476</v>
@@ -15283,7 +17007,7 @@
         <v>40.023300781250001</v>
       </c>
       <c r="E5">
-        <v>4055.3609516601564</v>
+        <v>4002.330078125</v>
       </c>
       <c r="F5">
         <v>0.18998000025749201</v>
@@ -15354,7 +17078,7 @@
         <v>36.476201171874997</v>
       </c>
       <c r="E6">
-        <v>3695.951083740234</v>
+        <v>3647.6201171874995</v>
       </c>
       <c r="F6">
         <v>0.18479000031948101</v>
@@ -15425,7 +17149,7 @@
         <v>37.966201171874999</v>
       </c>
       <c r="E7">
-        <v>3846.9253337402342</v>
+        <v>3796.6201171875</v>
       </c>
       <c r="F7">
         <v>0.20100000500678999</v>
@@ -15496,7 +17220,7 @@
         <v>25.675700683593799</v>
       </c>
       <c r="E8">
-        <v>2601.5903717651418</v>
+        <v>2567.57006835938</v>
       </c>
       <c r="F8">
         <v>0.31000000238418601</v>
@@ -15567,7 +17291,7 @@
         <v>28.198701171875001</v>
       </c>
       <c r="E9">
-        <v>2857.2333962402345</v>
+        <v>2819.8701171875</v>
       </c>
       <c r="F9">
         <v>0.28999000787735002</v>
@@ -15635,7 +17359,7 @@
         <v>27.296201171875001</v>
       </c>
       <c r="E10">
-        <v>2765.7875837402344</v>
+        <v>2729.6201171875</v>
       </c>
       <c r="F10">
         <v>0.31999000906944303</v>
@@ -15703,7 +17427,7 @@
         <v>24.865100097656299</v>
       </c>
       <c r="E11">
-        <v>2519.4562673950245</v>
+        <v>2486.51000976563</v>
       </c>
       <c r="F11">
         <v>0.34599000215530401</v>
@@ -15771,7 +17495,7 @@
         <v>25.563701171875</v>
       </c>
       <c r="E12">
-        <v>2590.2420212402344</v>
+        <v>2556.3701171875</v>
       </c>
       <c r="F12">
         <v>0.34099000692367598</v>
@@ -15839,7 +17563,7 @@
         <v>26.283701171875002</v>
       </c>
       <c r="E13">
-        <v>2663.1960212402346</v>
+        <v>2628.3701171875</v>
       </c>
       <c r="F13">
         <v>0.34000000357627902</v>
@@ -15907,7 +17631,7 @@
         <v>46.2041015625</v>
       </c>
       <c r="E14">
-        <v>4681.630590820313</v>
+        <v>4620.41015625</v>
       </c>
       <c r="F14">
         <v>0.14800000190734899</v>
@@ -15975,7 +17699,7 @@
         <v>27.367800292968802</v>
       </c>
       <c r="E15">
-        <v>2773.0423646850641</v>
+        <v>2736.78002929688</v>
       </c>
       <c r="F15">
         <v>0.307000011205673</v>
@@ -16043,7 +17767,7 @@
         <v>29.536201171875</v>
       </c>
       <c r="E16">
-        <v>2992.7555837402342</v>
+        <v>2953.6201171875</v>
       </c>
       <c r="F16">
         <v>0.25999000668525701</v>
@@ -16111,7 +17835,7 @@
         <v>27.336201171875</v>
       </c>
       <c r="E17">
-        <v>2769.8405837402347</v>
+        <v>2733.6201171875</v>
       </c>
       <c r="F17">
         <v>0.34000000357627902</v>
@@ -16179,7 +17903,7 @@
         <v>29.0802001953125</v>
       </c>
       <c r="E18">
-        <v>2946.5512847900391</v>
+        <v>2908.02001953125</v>
       </c>
       <c r="F18">
         <v>0.30500000715255698</v>
@@ -16247,7 +17971,7 @@
         <v>28.137900390624999</v>
       </c>
       <c r="E19">
-        <v>2851.0727570800782</v>
+        <v>2813.7900390625</v>
       </c>
       <c r="F19">
         <v>0.32699000835418701</v>
@@ -16315,7 +18039,7 @@
         <v>28.908000488281299</v>
       </c>
       <c r="E20">
-        <v>2929.1031494751028</v>
+        <v>2890.80004882813</v>
       </c>
       <c r="F20">
         <v>0.31400001049041698</v>
@@ -16383,7 +18107,7 @@
         <v>24.843701171875001</v>
       </c>
       <c r="E21">
-        <v>2517.2880212402347</v>
+        <v>2484.3701171875</v>
       </c>
       <c r="F21">
         <v>0.38400000333786</v>
@@ -16451,7 +18175,7 @@
         <v>35.286999511718804</v>
       </c>
       <c r="E22">
-        <v>3575.4552255249077</v>
+        <v>3528.6999511718805</v>
       </c>
       <c r="F22">
         <v>0.232960000634193</v>
@@ -16519,7 +18243,7 @@
         <v>22.898701171875</v>
       </c>
       <c r="E23">
-        <v>2320.2108962402344</v>
+        <v>2289.8701171875</v>
       </c>
       <c r="F23">
         <v>0.416680008172989</v>
@@ -16587,7 +18311,7 @@
         <v>42.566601562500004</v>
       </c>
       <c r="E24">
-        <v>4313.0609033203127</v>
+        <v>4256.66015625</v>
       </c>
       <c r="F24">
         <v>0.152400001883507</v>
@@ -16655,7 +18379,7 @@
         <v>33.335900878906301</v>
       </c>
       <c r="E25">
-        <v>3377.7601565551809</v>
+        <v>3333.59008789063</v>
       </c>
       <c r="F25">
         <v>0.222240000963211</v>
@@ -16723,7 +18447,7 @@
         <v>31.268701171875001</v>
       </c>
       <c r="E26">
-        <v>3168.3011462402346</v>
+        <v>3126.8701171875</v>
       </c>
       <c r="F26">
         <v>0.24695000052452101</v>
@@ -16791,7 +18515,7 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>3141.0750000000003</v>
+        <v>3100</v>
       </c>
       <c r="F27">
         <v>0.23194000124931299</v>
@@ -16859,7 +18583,7 @@
         <v>30.103601074218801</v>
       </c>
       <c r="E28">
-        <v>3050.2473788452203</v>
+        <v>3010.36010742188</v>
       </c>
       <c r="F28">
         <v>0.279100000858307</v>
@@ -16927,7 +18651,7 @@
         <v>31.238400878906301</v>
       </c>
       <c r="E29">
-        <v>3165.230969055181</v>
+        <v>3123.84008789063</v>
       </c>
       <c r="F29">
         <v>0.27500000596046398</v>
@@ -16995,7 +18719,7 @@
         <v>18.299200439453099</v>
       </c>
       <c r="E30">
-        <v>1854.1664845275852</v>
+        <v>1829.9200439453098</v>
       </c>
       <c r="F30">
         <v>0.56199002265930198</v>
@@ -17063,7 +18787,7 @@
         <v>23.096201171875002</v>
       </c>
       <c r="E31">
-        <v>2340.2225837402348</v>
+        <v>2309.6201171875</v>
       </c>
       <c r="F31">
         <v>0.40999001264572099</v>
@@ -17131,7 +18855,7 @@
         <v>19.649300537109401</v>
       </c>
       <c r="E32">
-        <v>1990.9653769226102</v>
+        <v>1964.93005371094</v>
       </c>
       <c r="F32">
         <v>0.53500002622604403</v>
@@ -17199,7 +18923,7 @@
         <v>48.8385009765625</v>
       </c>
       <c r="E33">
-        <v>4948.5611114501953</v>
+        <v>4883.85009765625</v>
       </c>
       <c r="F33">
         <v>9.8600000143051106E-2</v>
@@ -17350,97 +19074,97 @@
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>4075.8995489501958</v>
+        <v>4022.6000976562505</v>
       </c>
       <c r="B38">
-        <v>4209.1013543701174</v>
+        <v>4154.06005859375</v>
       </c>
       <c r="C38">
-        <v>4055.3609516601564</v>
+        <v>4002.330078125</v>
       </c>
       <c r="D38">
-        <v>3695.951083740234</v>
+        <v>3647.6201171874995</v>
       </c>
       <c r="E38">
-        <v>3846.9253337402342</v>
+        <v>3796.6201171875</v>
       </c>
       <c r="F38">
-        <v>2601.5903717651418</v>
+        <v>2567.57006835938</v>
       </c>
       <c r="G38">
-        <v>2857.2333962402345</v>
+        <v>2819.8701171875</v>
       </c>
       <c r="H38">
-        <v>2765.7875837402344</v>
+        <v>2729.6201171875</v>
       </c>
       <c r="I38">
-        <v>2519.4562673950245</v>
+        <v>2486.51000976563</v>
       </c>
       <c r="J38">
-        <v>2590.2420212402344</v>
+        <v>2556.3701171875</v>
       </c>
       <c r="K38">
-        <v>2663.1960212402346</v>
+        <v>2628.3701171875</v>
       </c>
       <c r="L38">
-        <v>4681.630590820313</v>
+        <v>4620.41015625</v>
       </c>
       <c r="M38">
-        <v>2773.0423646850641</v>
+        <v>2736.78002929688</v>
       </c>
       <c r="N38">
-        <v>2992.7555837402342</v>
+        <v>2953.6201171875</v>
       </c>
       <c r="O38">
-        <v>2769.8405837402347</v>
+        <v>2733.6201171875</v>
       </c>
       <c r="P38">
-        <v>2946.5512847900391</v>
+        <v>2908.02001953125</v>
       </c>
       <c r="Q38">
-        <v>2851.0727570800782</v>
+        <v>2813.7900390625</v>
       </c>
       <c r="R38">
-        <v>2929.1031494751028</v>
+        <v>2890.80004882813</v>
       </c>
       <c r="S38">
-        <v>2517.2880212402347</v>
+        <v>2484.3701171875</v>
       </c>
       <c r="T38">
-        <v>3575.4552255249077</v>
+        <v>3528.6999511718805</v>
       </c>
       <c r="U38">
-        <v>2320.2108962402344</v>
+        <v>2289.8701171875</v>
       </c>
       <c r="V38">
-        <v>4313.0609033203127</v>
+        <v>4256.66015625</v>
       </c>
       <c r="W38">
-        <v>3377.7601565551809</v>
+        <v>3333.59008789063</v>
       </c>
       <c r="X38">
-        <v>3168.3011462402346</v>
+        <v>3126.8701171875</v>
       </c>
       <c r="Y38">
-        <v>3141.0750000000003</v>
+        <v>3100</v>
       </c>
       <c r="Z38">
-        <v>3050.2473788452203</v>
+        <v>3010.36010742188</v>
       </c>
       <c r="AA38">
-        <v>3165.230969055181</v>
+        <v>3123.84008789063</v>
       </c>
       <c r="AB38">
-        <v>1854.1664845275852</v>
+        <v>1829.9200439453098</v>
       </c>
       <c r="AC38">
-        <v>2340.2225837402348</v>
+        <v>2309.6201171875</v>
       </c>
       <c r="AD38">
-        <v>1990.9653769226102</v>
+        <v>1964.93005371094</v>
       </c>
       <c r="AE38">
-        <v>4948.5611114501953</v>
+        <v>4883.85009765625</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.25">
@@ -17759,127 +19483,127 @@
     <row r="43" spans="1:31" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" ref="A43:AE43" si="1">CONCATENATE(A38,A$41)</f>
-        <v>4075.8995489502,</v>
+        <v>4022.60009765625,</v>
       </c>
       <c r="B43" t="str">
         <f t="shared" si="1"/>
-        <v>4209.10135437012,</v>
+        <v>4154.06005859375,</v>
       </c>
       <c r="C43" t="str">
         <f t="shared" si="1"/>
-        <v>4055.36095166016,</v>
+        <v>4002.330078125,</v>
       </c>
       <c r="D43" t="str">
         <f t="shared" si="1"/>
-        <v>3695.95108374023,</v>
+        <v>3647.6201171875,</v>
       </c>
       <c r="E43" t="str">
         <f t="shared" si="1"/>
-        <v>3846.92533374023,</v>
+        <v>3796.6201171875,</v>
       </c>
       <c r="F43" t="str">
         <f t="shared" si="1"/>
-        <v>2601.59037176514,</v>
+        <v>2567.57006835938,</v>
       </c>
       <c r="G43" t="str">
         <f t="shared" si="1"/>
-        <v>2857.23339624023,</v>
+        <v>2819.8701171875,</v>
       </c>
       <c r="H43" t="str">
         <f t="shared" si="1"/>
-        <v>2765.78758374023,</v>
+        <v>2729.6201171875,</v>
       </c>
       <c r="I43" t="str">
         <f t="shared" si="1"/>
-        <v>2519.45626739502,</v>
+        <v>2486.51000976563,</v>
       </c>
       <c r="J43" t="str">
         <f t="shared" si="1"/>
-        <v>2590.24202124023,</v>
+        <v>2556.3701171875,</v>
       </c>
       <c r="K43" t="str">
         <f t="shared" si="1"/>
-        <v>2663.19602124023,</v>
+        <v>2628.3701171875,</v>
       </c>
       <c r="L43" t="str">
         <f t="shared" si="1"/>
-        <v>4681.63059082031,</v>
+        <v>4620.41015625,</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="1"/>
-        <v>2773.04236468506,</v>
+        <v>2736.78002929688,</v>
       </c>
       <c r="N43" t="str">
         <f t="shared" si="1"/>
-        <v>2992.75558374023,</v>
+        <v>2953.6201171875,</v>
       </c>
       <c r="O43" t="str">
         <f t="shared" si="1"/>
-        <v>2769.84058374023,</v>
+        <v>2733.6201171875,</v>
       </c>
       <c r="P43" t="str">
         <f t="shared" si="1"/>
-        <v>2946.55128479003,</v>
+        <v>2908.02001953125,</v>
       </c>
       <c r="Q43" t="str">
         <f t="shared" si="1"/>
-        <v>2851.07275708008,</v>
+        <v>2813.7900390625,</v>
       </c>
       <c r="R43" t="str">
         <f t="shared" si="1"/>
-        <v>2929.1031494751,</v>
+        <v>2890.80004882813,</v>
       </c>
       <c r="S43" t="str">
         <f t="shared" si="1"/>
-        <v>2517.28802124023,</v>
+        <v>2484.3701171875,</v>
       </c>
       <c r="T43" t="str">
         <f t="shared" si="1"/>
-        <v>3575.45522552491,</v>
+        <v>3528.69995117188,</v>
       </c>
       <c r="U43" t="str">
         <f t="shared" si="1"/>
-        <v>2320.21089624023,</v>
+        <v>2289.8701171875,</v>
       </c>
       <c r="V43" t="str">
         <f t="shared" si="1"/>
-        <v>4313.06090332031,</v>
+        <v>4256.66015625,</v>
       </c>
       <c r="W43" t="str">
         <f t="shared" si="1"/>
-        <v>3377.76015655518,</v>
+        <v>3333.59008789063,</v>
       </c>
       <c r="X43" t="str">
         <f t="shared" si="1"/>
-        <v>3168.30114624023,</v>
+        <v>3126.8701171875,</v>
       </c>
       <c r="Y43" t="str">
         <f t="shared" si="1"/>
-        <v>3141.075,</v>
+        <v>3100,</v>
       </c>
       <c r="Z43" t="str">
         <f t="shared" si="1"/>
-        <v>3050.24737884522,</v>
+        <v>3010.36010742188,</v>
       </c>
       <c r="AA43" t="str">
         <f t="shared" si="1"/>
-        <v>3165.23096905518,</v>
+        <v>3123.84008789063,</v>
       </c>
       <c r="AB43" t="str">
         <f t="shared" si="1"/>
-        <v>1854.16648452759,</v>
+        <v>1829.92004394531,</v>
       </c>
       <c r="AC43" t="str">
         <f t="shared" si="1"/>
-        <v>2340.22258374023,</v>
+        <v>2309.6201171875,</v>
       </c>
       <c r="AD43" t="str">
         <f t="shared" si="1"/>
-        <v>1990.96537692261,</v>
+        <v>1964.93005371094,</v>
       </c>
       <c r="AE43" t="str">
         <f t="shared" si="1"/>
-        <v>4948.56111145019</v>
+        <v>4883.85009765625</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.25">
@@ -21348,6 +23072,10 @@
       <c r="B91" s="9">
         <v>0</v>
       </c>
+      <c r="C91">
+        <f>B91/$B$122</f>
+        <v>0</v>
+      </c>
       <c r="E91" t="s">
         <v>167</v>
       </c>
@@ -21378,6 +23106,10 @@
       <c r="B92" s="9">
         <v>0</v>
       </c>
+      <c r="C92">
+        <f t="shared" ref="C92:C121" si="12">B92/$B$122</f>
+        <v>0</v>
+      </c>
       <c r="E92" t="s">
         <v>167</v>
       </c>
@@ -21397,7 +23129,7 @@
         <v>170</v>
       </c>
       <c r="K92" t="str">
-        <f t="shared" ref="K92:K121" si="12">CONCATENATE(E92,F92,G92,H92,I92,B92,J92)</f>
+        <f t="shared" ref="K92:K121" si="13">CONCATENATE(E92,F92,G92,H92,I92,B92,J92)</f>
         <v>zf[1,FeedTray1-1]:=0;</v>
       </c>
     </row>
@@ -21408,6 +23140,10 @@
       <c r="B93" s="9">
         <v>0</v>
       </c>
+      <c r="C93">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="E93" t="s">
         <v>167</v>
       </c>
@@ -21427,7 +23163,7 @@
         <v>170</v>
       </c>
       <c r="K93" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>zf[2,FeedTray1-1]:=0;</v>
       </c>
     </row>
@@ -21436,7 +23172,11 @@
         <v>112</v>
       </c>
       <c r="B94" s="9">
-        <v>53.243451031042255</v>
+        <v>0.53243451031042266</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="12"/>
+        <v>0.53243451031042277</v>
       </c>
       <c r="E94" t="s">
         <v>167</v>
@@ -21457,8 +23197,8 @@
         <v>170</v>
       </c>
       <c r="K94" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[3,FeedTray1-1]:=53.2434510310423;</v>
+        <f t="shared" si="13"/>
+        <v>zf[3,FeedTray1-1]:=0.532434510310423;</v>
       </c>
     </row>
     <row r="95" spans="1:31" x14ac:dyDescent="0.25">
@@ -21466,7 +23206,11 @@
         <v>96</v>
       </c>
       <c r="B95" s="9">
-        <v>13.946958469184164</v>
+        <v>0.13946958469184165</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="12"/>
+        <v>0.13946958469184167</v>
       </c>
       <c r="E95" t="s">
         <v>167</v>
@@ -21487,8 +23231,8 @@
         <v>170</v>
       </c>
       <c r="K95" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[4,FeedTray1-1]:=13.9469584691842;</v>
+        <f t="shared" si="13"/>
+        <v>zf[4,FeedTray1-1]:=0.139469584691842;</v>
       </c>
     </row>
     <row r="96" spans="1:31" x14ac:dyDescent="0.25">
@@ -21496,7 +23240,11 @@
         <v>115</v>
       </c>
       <c r="B96" s="9">
-        <v>9.6447548559085572</v>
+        <v>9.6447548559085591E-2</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="12"/>
+        <v>9.6447548559085605E-2</v>
       </c>
       <c r="E96" t="s">
         <v>167</v>
@@ -21517,8 +23265,8 @@
         <v>170</v>
       </c>
       <c r="K96" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[5,FeedTray1-1]:=9.64475485590856;</v>
+        <f t="shared" si="13"/>
+        <v>zf[5,FeedTray1-1]:=0.0964475485590856;</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
@@ -21526,7 +23274,11 @@
         <v>116</v>
       </c>
       <c r="B97" s="9">
-        <v>5.0997594683956082</v>
+        <v>5.0997594683956086E-2</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="12"/>
+        <v>5.0997594683956093E-2</v>
       </c>
       <c r="E97" t="s">
         <v>167</v>
@@ -21547,8 +23299,8 @@
         <v>170</v>
       </c>
       <c r="K97" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[6,FeedTray1-1]:=5.09975946839561;</v>
+        <f t="shared" si="13"/>
+        <v>zf[6,FeedTray1-1]:=0.0509975946839561;</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
@@ -21556,7 +23308,11 @@
         <v>117</v>
       </c>
       <c r="B98" s="9">
-        <v>4.3018966177655757</v>
+        <v>4.3018966177655764E-2</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="12"/>
+        <v>4.3018966177655771E-2</v>
       </c>
       <c r="E98" t="s">
         <v>167</v>
@@ -21577,8 +23333,8 @@
         <v>170</v>
       </c>
       <c r="K98" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[7,FeedTray1-1]:=4.30189661776558;</v>
+        <f t="shared" si="13"/>
+        <v>zf[7,FeedTray1-1]:=0.0430189661776558;</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
@@ -21586,7 +23342,11 @@
         <v>119</v>
       </c>
       <c r="B99" s="9">
-        <v>1.1361250705203991</v>
+        <v>1.1361250705203992E-2</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="12"/>
+        <v>1.1361250705203994E-2</v>
       </c>
       <c r="E99" t="s">
         <v>167</v>
@@ -21607,8 +23367,8 @@
         <v>170</v>
       </c>
       <c r="K99" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[8,FeedTray1-1]:=1.1361250705204;</v>
+        <f t="shared" si="13"/>
+        <v>zf[8,FeedTray1-1]:=0.011361250705204;</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
@@ -21616,7 +23376,11 @@
         <v>120</v>
       </c>
       <c r="B100" s="9">
-        <v>0.92467915526789779</v>
+        <v>9.2467915526789797E-3</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="12"/>
+        <v>9.2467915526789814E-3</v>
       </c>
       <c r="E100" t="s">
         <v>167</v>
@@ -21637,8 +23401,8 @@
         <v>170</v>
       </c>
       <c r="K100" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[9,FeedTray1-1]:=0.924679155267898;</v>
+        <f t="shared" si="13"/>
+        <v>zf[9,FeedTray1-1]:=0.00924679155267898;</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
@@ -21646,7 +23410,11 @@
         <v>121</v>
       </c>
       <c r="B101" s="9">
-        <v>0.79965921384572702</v>
+        <v>7.996592138457272E-3</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="12"/>
+        <v>7.9965921384572737E-3</v>
       </c>
       <c r="E101" t="s">
         <v>167</v>
@@ -21667,8 +23435,8 @@
         <v>170</v>
       </c>
       <c r="K101" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[10,FeedTray1-1]:=0.799659213845727;</v>
+        <f t="shared" si="13"/>
+        <v>zf[10,FeedTray1-1]:=0.00799659213845727;</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
@@ -21678,6 +23446,10 @@
       <c r="B102" s="9">
         <v>0</v>
       </c>
+      <c r="C102">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="E102" t="s">
         <v>167</v>
       </c>
@@ -21697,7 +23469,7 @@
         <v>170</v>
       </c>
       <c r="K102" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>zf[11,FeedTray1-1]:=0;</v>
       </c>
     </row>
@@ -21706,7 +23478,11 @@
         <v>122</v>
       </c>
       <c r="B103" s="9">
-        <v>0.8943277681725178</v>
+        <v>8.9432776817251793E-3</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="12"/>
+        <v>8.943277681725181E-3</v>
       </c>
       <c r="E103" t="s">
         <v>167</v>
@@ -21727,8 +23503,8 @@
         <v>170</v>
       </c>
       <c r="K103" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[12,FeedTray1-1]:=0.894327768172518;</v>
+        <f t="shared" si="13"/>
+        <v>zf[12,FeedTray1-1]:=0.00894327768172518;</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -21736,7 +23512,11 @@
         <v>123</v>
       </c>
       <c r="B104" s="9">
-        <v>5.4705289527527602E-2</v>
+        <v>5.4705289527527613E-4</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="12"/>
+        <v>5.4705289527527624E-4</v>
       </c>
       <c r="E104" t="s">
         <v>167</v>
@@ -21757,8 +23537,8 @@
         <v>170</v>
       </c>
       <c r="K104" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[13,FeedTray1-1]:=0.0547052895275276;</v>
+        <f t="shared" si="13"/>
+        <v>zf[13,FeedTray1-1]:=0.000547052895275276;</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -21766,7 +23546,11 @@
         <v>124</v>
       </c>
       <c r="B105" s="9">
-        <v>5.3026697320919663E-2</v>
+        <v>5.3026697320919666E-4</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="12"/>
+        <v>5.3026697320919676E-4</v>
       </c>
       <c r="E105" t="s">
         <v>167</v>
@@ -21787,8 +23571,8 @@
         <v>170</v>
       </c>
       <c r="K105" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[14,FeedTray1-1]:=0.0530266973209197;</v>
+        <f t="shared" si="13"/>
+        <v>zf[14,FeedTray1-1]:=0.000530266973209197;</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -21796,7 +23580,11 @@
         <v>125</v>
       </c>
       <c r="B106" s="9">
-        <v>0.45093426373259077</v>
+        <v>4.5093426373259086E-3</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="12"/>
+        <v>4.5093426373259094E-3</v>
       </c>
       <c r="E106" t="s">
         <v>167</v>
@@ -21817,8 +23605,8 @@
         <v>170</v>
       </c>
       <c r="K106" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[15,FeedTray1-1]:=0.450934263732591;</v>
+        <f t="shared" si="13"/>
+        <v>zf[15,FeedTray1-1]:=0.00450934263732591;</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -21826,7 +23614,11 @@
         <v>126</v>
       </c>
       <c r="B107" s="9">
-        <v>3.7493268704121001E-2</v>
+        <v>3.7493268704121008E-4</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="12"/>
+        <v>3.7493268704121013E-4</v>
       </c>
       <c r="E107" t="s">
         <v>167</v>
@@ -21847,8 +23639,8 @@
         <v>170</v>
       </c>
       <c r="K107" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[16,FeedTray1-1]:=0.037493268704121;</v>
+        <f t="shared" si="13"/>
+        <v>zf[16,FeedTray1-1]:=0.00037493268704121;</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
@@ -21858,6 +23650,10 @@
       <c r="B108" s="9">
         <v>0</v>
       </c>
+      <c r="C108">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="E108" t="s">
         <v>167</v>
       </c>
@@ -21877,7 +23673,7 @@
         <v>170</v>
       </c>
       <c r="K108" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>zf[17,FeedTray1-1]:=0;</v>
       </c>
     </row>
@@ -21886,7 +23682,11 @@
         <v>32</v>
       </c>
       <c r="B109" s="9">
-        <v>0.72362140610227155</v>
+        <v>7.2362140610227168E-3</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="12"/>
+        <v>7.2362140610227176E-3</v>
       </c>
       <c r="E109" t="s">
         <v>167</v>
@@ -21907,8 +23707,8 @@
         <v>170</v>
       </c>
       <c r="K109" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[18,FeedTray1-1]:=0.723621406102272;</v>
+        <f t="shared" si="13"/>
+        <v>zf[18,FeedTray1-1]:=0.00723621406102272;</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -21918,6 +23718,10 @@
       <c r="B110" s="9">
         <v>0</v>
       </c>
+      <c r="C110">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="E110" t="s">
         <v>167</v>
       </c>
@@ -21937,7 +23741,7 @@
         <v>170</v>
       </c>
       <c r="K110" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>zf[19,FeedTray1-1]:=0;</v>
       </c>
     </row>
@@ -21946,7 +23750,11 @@
         <v>36</v>
       </c>
       <c r="B111" s="9">
-        <v>1.0947820005587128</v>
+        <v>1.0947820005587128E-2</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="12"/>
+        <v>1.094782000558713E-2</v>
       </c>
       <c r="E111" t="s">
         <v>167</v>
@@ -21967,8 +23775,8 @@
         <v>170</v>
       </c>
       <c r="K111" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[20,FeedTray1-1]:=1.09478200055871;</v>
+        <f t="shared" si="13"/>
+        <v>zf[20,FeedTray1-1]:=0.0109478200055871;</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
@@ -21976,7 +23784,11 @@
         <v>99</v>
       </c>
       <c r="B112" s="9">
-        <v>1.9515039500368134</v>
+        <v>1.9515039500368137E-2</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="12"/>
+        <v>1.9515039500368141E-2</v>
       </c>
       <c r="E112" t="s">
         <v>167</v>
@@ -21997,8 +23809,8 @@
         <v>170</v>
       </c>
       <c r="K112" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[21,FeedTray1-1]:=1.95150395003681;</v>
+        <f t="shared" si="13"/>
+        <v>zf[21,FeedTray1-1]:=0.0195150395003681;</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -22006,7 +23818,11 @@
         <v>100</v>
       </c>
       <c r="B113" s="9">
-        <v>2.495931247191066</v>
+        <v>2.4959312471910664E-2</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="12"/>
+        <v>2.4959312471910668E-2</v>
       </c>
       <c r="E113" t="s">
         <v>167</v>
@@ -22027,8 +23843,8 @@
         <v>170</v>
       </c>
       <c r="K113" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[22,FeedTray1-1]:=2.49593124719107;</v>
+        <f t="shared" si="13"/>
+        <v>zf[22,FeedTray1-1]:=0.0249593124719107;</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
@@ -22036,7 +23852,11 @@
         <v>127</v>
       </c>
       <c r="B114" s="9">
-        <v>1.270089177738301</v>
+        <v>1.2700891777383011E-2</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="12"/>
+        <v>1.2700891777383013E-2</v>
       </c>
       <c r="E114" t="s">
         <v>167</v>
@@ -22057,8 +23877,8 @@
         <v>170</v>
       </c>
       <c r="K114" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[23,FeedTray1-1]:=1.2700891777383;</v>
+        <f t="shared" si="13"/>
+        <v>zf[23,FeedTray1-1]:=0.012700891777383;</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
@@ -22068,6 +23888,10 @@
       <c r="B115" s="9">
         <v>0</v>
       </c>
+      <c r="C115">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="E115" t="s">
         <v>167</v>
       </c>
@@ -22087,7 +23911,7 @@
         <v>170</v>
       </c>
       <c r="K115" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>zf[24,FeedTray1-1]:=0;</v>
       </c>
     </row>
@@ -22096,7 +23920,11 @@
         <v>129</v>
       </c>
       <c r="B116" s="9">
-        <v>0.29529131951911414</v>
+        <v>2.9529131951911416E-3</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="12"/>
+        <v>2.952913195191142E-3</v>
       </c>
       <c r="E116" t="s">
         <v>167</v>
@@ -22117,8 +23945,8 @@
         <v>170</v>
       </c>
       <c r="K116" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[25,FeedTray1-1]:=0.295291319519114;</v>
+        <f t="shared" si="13"/>
+        <v>zf[25,FeedTray1-1]:=0.00295291319519114;</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
@@ -22126,7 +23954,11 @@
         <v>130</v>
       </c>
       <c r="B117" s="9">
-        <v>0.13865878540410265</v>
+        <v>1.3865878540410266E-3</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="12"/>
+        <v>1.3865878540410268E-3</v>
       </c>
       <c r="E117" t="s">
         <v>167</v>
@@ -22147,8 +23979,8 @@
         <v>170</v>
       </c>
       <c r="K117" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[26,FeedTray1-1]:=0.138658785404103;</v>
+        <f t="shared" si="13"/>
+        <v>zf[26,FeedTray1-1]:=0.00138658785404103;</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
@@ -22156,7 +23988,11 @@
         <v>101</v>
       </c>
       <c r="B118" s="9">
-        <v>5.494373946823098E-2</v>
+        <v>5.494373946823099E-4</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="12"/>
+        <v>5.4943739468231001E-4</v>
       </c>
       <c r="E118" t="s">
         <v>167</v>
@@ -22177,8 +24013,8 @@
         <v>170</v>
       </c>
       <c r="K118" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[27,FeedTray1-1]:=0.054943739468231;</v>
+        <f t="shared" si="13"/>
+        <v>zf[27,FeedTray1-1]:=0.00054943739468231;</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
@@ -22186,7 +24022,11 @@
         <v>65</v>
       </c>
       <c r="B119" s="9">
-        <v>0.3360178038320461</v>
+        <v>3.3601780383204615E-3</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="12"/>
+        <v>3.3601780383204619E-3</v>
       </c>
       <c r="E119" t="s">
         <v>167</v>
@@ -22207,8 +24047,8 @@
         <v>170</v>
       </c>
       <c r="K119" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[28,FeedTray1-1]:=0.336017803832046;</v>
+        <f t="shared" si="13"/>
+        <v>zf[28,FeedTray1-1]:=0.00336017803832046;</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
@@ -22216,7 +24056,11 @@
         <v>70</v>
       </c>
       <c r="B120" s="9">
-        <v>1.0513894007614728</v>
+        <v>1.0513894007614729E-2</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="12"/>
+        <v>1.0513894007614731E-2</v>
       </c>
       <c r="E120" t="s">
         <v>167</v>
@@ -22237,8 +24081,8 @@
         <v>170</v>
       </c>
       <c r="K120" t="str">
-        <f t="shared" si="12"/>
-        <v>zf[29,FeedTray1-1]:=1.05138940076147;</v>
+        <f t="shared" si="13"/>
+        <v>zf[29,FeedTray1-1]:=0.0105138940076147;</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
@@ -22248,6 +24092,10 @@
       <c r="B121" s="9">
         <v>0</v>
       </c>
+      <c r="C121">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
       <c r="E121" t="s">
         <v>167</v>
       </c>
@@ -22267,8 +24115,14 @@
         <v>170</v>
       </c>
       <c r="K121" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>zf[30,FeedTray1-1]:=0;</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122" s="9">
+        <f>SUM(B91:B121)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
@@ -22283,7 +24137,11 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B125">
-        <v>7.5792344443218987E-2</v>
+        <v>7.5792344443218981E-4</v>
+      </c>
+      <c r="C125">
+        <f>B125/$B$156</f>
+        <v>7.5792344443218992E-4</v>
       </c>
       <c r="E125" t="s">
         <v>167</v>
@@ -22305,13 +24163,17 @@
       </c>
       <c r="K125" t="str">
         <f>CONCATENATE(E125,F125,G125,H125,I125,B125,J125)</f>
-        <v>zf[0,FeedTray2-1]:=0.075792344443219;</v>
+        <v>zf[0,FeedTray2-1]:=0.00075792344443219;</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>0</v>
       </c>
+      <c r="C126">
+        <f t="shared" ref="C126:C155" si="14">B126/$B$156</f>
+        <v>0</v>
+      </c>
       <c r="E126" t="s">
         <v>167</v>
       </c>
@@ -22331,13 +24193,17 @@
         <v>170</v>
       </c>
       <c r="K126" t="str">
-        <f t="shared" ref="K126:K155" si="13">CONCATENATE(E126,F126,G126,H126,I126,B126,J126)</f>
+        <f t="shared" ref="K126:K155" si="15">CONCATENATE(E126,F126,G126,H126,I126,B126,J126)</f>
         <v>zf[1,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B127">
-        <v>0.2182690964805154</v>
+        <v>2.1826909648051539E-3</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="14"/>
+        <v>2.1826909648051543E-3</v>
       </c>
       <c r="E127" t="s">
         <v>167</v>
@@ -22358,13 +24224,17 @@
         <v>170</v>
       </c>
       <c r="K127" t="str">
-        <f t="shared" si="13"/>
-        <v>zf[2,FeedTray2-1]:=0.218269096480515;</v>
+        <f t="shared" si="15"/>
+        <v>zf[2,FeedTray2-1]:=0.00218269096480515;</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B128">
-        <v>95.590636432036064</v>
+        <v>0.95590636432036047</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="14"/>
+        <v>0.95590636432036058</v>
       </c>
       <c r="E128" t="s">
         <v>167</v>
@@ -22385,13 +24255,17 @@
         <v>170</v>
       </c>
       <c r="K128" t="str">
-        <f t="shared" si="13"/>
-        <v>zf[3,FeedTray2-1]:=95.5906364320361;</v>
+        <f t="shared" si="15"/>
+        <v>zf[3,FeedTray2-1]:=0.95590636432036;</v>
       </c>
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129">
-        <v>3.6267756299790781</v>
+        <v>3.6267756299790774E-2</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="14"/>
+        <v>3.6267756299790781E-2</v>
       </c>
       <c r="E129" t="s">
         <v>167</v>
@@ -22412,14 +24286,18 @@
         <v>170</v>
       </c>
       <c r="K129" t="str">
-        <f t="shared" si="13"/>
-        <v>zf[4,FeedTray2-1]:=3.62677562997908;</v>
+        <f t="shared" si="15"/>
+        <v>zf[4,FeedTray2-1]:=0.0362677562997908;</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130">
         <v>0</v>
       </c>
+      <c r="C130">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E130" t="s">
         <v>167</v>
       </c>
@@ -22439,7 +24317,7 @@
         <v>170</v>
       </c>
       <c r="K130" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[5,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22447,6 +24325,10 @@
       <c r="B131">
         <v>0</v>
       </c>
+      <c r="C131">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E131" t="s">
         <v>167</v>
       </c>
@@ -22466,7 +24348,7 @@
         <v>170</v>
       </c>
       <c r="K131" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[6,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22474,6 +24356,10 @@
       <c r="B132">
         <v>0</v>
       </c>
+      <c r="C132">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E132" t="s">
         <v>167</v>
       </c>
@@ -22493,7 +24379,7 @@
         <v>170</v>
       </c>
       <c r="K132" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[7,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22501,6 +24387,10 @@
       <c r="B133">
         <v>0</v>
       </c>
+      <c r="C133">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E133" t="s">
         <v>167</v>
       </c>
@@ -22520,7 +24410,7 @@
         <v>170</v>
       </c>
       <c r="K133" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[8,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22528,6 +24418,10 @@
       <c r="B134">
         <v>0</v>
       </c>
+      <c r="C134">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E134" t="s">
         <v>167</v>
       </c>
@@ -22547,7 +24441,7 @@
         <v>170</v>
       </c>
       <c r="K134" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[9,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22555,6 +24449,10 @@
       <c r="B135">
         <v>0</v>
       </c>
+      <c r="C135">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E135" t="s">
         <v>167</v>
       </c>
@@ -22574,7 +24472,7 @@
         <v>170</v>
       </c>
       <c r="K135" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[10,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22582,6 +24480,10 @@
       <c r="B136">
         <v>0</v>
       </c>
+      <c r="C136">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E136" t="s">
         <v>167</v>
       </c>
@@ -22601,7 +24503,7 @@
         <v>170</v>
       </c>
       <c r="K136" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[11,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22609,6 +24511,10 @@
       <c r="B137">
         <v>0</v>
       </c>
+      <c r="C137">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E137" t="s">
         <v>167</v>
       </c>
@@ -22628,7 +24534,7 @@
         <v>170</v>
       </c>
       <c r="K137" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[12,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22636,6 +24542,10 @@
       <c r="B138">
         <v>0</v>
       </c>
+      <c r="C138">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E138" t="s">
         <v>167</v>
       </c>
@@ -22655,7 +24565,7 @@
         <v>170</v>
       </c>
       <c r="K138" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[13,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22663,6 +24573,10 @@
       <c r="B139">
         <v>0</v>
       </c>
+      <c r="C139">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E139" t="s">
         <v>167</v>
       </c>
@@ -22682,7 +24596,7 @@
         <v>170</v>
       </c>
       <c r="K139" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[14,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22690,6 +24604,10 @@
       <c r="B140">
         <v>0</v>
       </c>
+      <c r="C140">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E140" t="s">
         <v>167</v>
       </c>
@@ -22709,7 +24627,7 @@
         <v>170</v>
       </c>
       <c r="K140" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[15,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22717,6 +24635,10 @@
       <c r="B141">
         <v>0</v>
       </c>
+      <c r="C141">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E141" t="s">
         <v>167</v>
       </c>
@@ -22736,7 +24658,7 @@
         <v>170</v>
       </c>
       <c r="K141" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[16,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22744,6 +24666,10 @@
       <c r="B142">
         <v>0</v>
       </c>
+      <c r="C142">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E142" t="s">
         <v>167</v>
       </c>
@@ -22763,7 +24689,7 @@
         <v>170</v>
       </c>
       <c r="K142" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[17,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22771,6 +24697,10 @@
       <c r="B143">
         <v>0</v>
       </c>
+      <c r="C143">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E143" t="s">
         <v>167</v>
       </c>
@@ -22790,7 +24720,7 @@
         <v>170</v>
       </c>
       <c r="K143" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[18,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22798,6 +24728,10 @@
       <c r="B144">
         <v>0</v>
       </c>
+      <c r="C144">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E144" t="s">
         <v>167</v>
       </c>
@@ -22817,7 +24751,7 @@
         <v>170</v>
       </c>
       <c r="K144" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[19,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22825,6 +24759,10 @@
       <c r="B145">
         <v>0</v>
       </c>
+      <c r="C145">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E145" t="s">
         <v>167</v>
       </c>
@@ -22844,13 +24782,17 @@
         <v>170</v>
       </c>
       <c r="K145" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[20,FeedTray2-1]:=0;</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146">
-        <v>0.4885264970611371</v>
+        <v>4.8852649706113702E-3</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="14"/>
+        <v>4.8852649706113711E-3</v>
       </c>
       <c r="E146" t="s">
         <v>167</v>
@@ -22871,14 +24813,18 @@
         <v>170</v>
       </c>
       <c r="K146" t="str">
-        <f t="shared" si="13"/>
-        <v>zf[21,FeedTray2-1]:=0.488526497061137;</v>
+        <f t="shared" si="15"/>
+        <v>zf[21,FeedTray2-1]:=0.00488526497061137;</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147">
         <v>0</v>
       </c>
+      <c r="C147">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E147" t="s">
         <v>167</v>
       </c>
@@ -22898,7 +24844,7 @@
         <v>170</v>
       </c>
       <c r="K147" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[22,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22906,6 +24852,10 @@
       <c r="B148">
         <v>0</v>
       </c>
+      <c r="C148">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E148" t="s">
         <v>167</v>
       </c>
@@ -22925,7 +24875,7 @@
         <v>170</v>
       </c>
       <c r="K148" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[23,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22933,6 +24883,10 @@
       <c r="B149">
         <v>0</v>
       </c>
+      <c r="C149">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E149" t="s">
         <v>167</v>
       </c>
@@ -22952,7 +24906,7 @@
         <v>170</v>
       </c>
       <c r="K149" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[24,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22960,6 +24914,10 @@
       <c r="B150">
         <v>0</v>
       </c>
+      <c r="C150">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E150" t="s">
         <v>167</v>
       </c>
@@ -22979,7 +24937,7 @@
         <v>170</v>
       </c>
       <c r="K150" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[25,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -22987,6 +24945,10 @@
       <c r="B151">
         <v>0</v>
       </c>
+      <c r="C151">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E151" t="s">
         <v>167</v>
       </c>
@@ -23006,7 +24968,7 @@
         <v>170</v>
       </c>
       <c r="K151" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[26,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -23014,6 +24976,10 @@
       <c r="B152">
         <v>0</v>
       </c>
+      <c r="C152">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E152" t="s">
         <v>167</v>
       </c>
@@ -23033,7 +24999,7 @@
         <v>170</v>
       </c>
       <c r="K152" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[27,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -23041,6 +25007,10 @@
       <c r="B153">
         <v>0</v>
       </c>
+      <c r="C153">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E153" t="s">
         <v>167</v>
       </c>
@@ -23060,7 +25030,7 @@
         <v>170</v>
       </c>
       <c r="K153" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[28,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -23068,6 +25038,10 @@
       <c r="B154">
         <v>0</v>
       </c>
+      <c r="C154">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E154" t="s">
         <v>167</v>
       </c>
@@ -23087,7 +25061,7 @@
         <v>170</v>
       </c>
       <c r="K154" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[29,FeedTray2-1]:=0;</v>
       </c>
     </row>
@@ -23095,6 +25069,10 @@
       <c r="B155">
         <v>0</v>
       </c>
+      <c r="C155">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
       <c r="E155" t="s">
         <v>167</v>
       </c>
@@ -23114,8 +25092,14 @@
         <v>170</v>
       </c>
       <c r="K155" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>zf[30,FeedTray2-1]:=0;</v>
+      </c>
+    </row>
+    <row r="156" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B156">
+        <f>SUM(B125:B155)</f>
+        <v>0.99999999999999989</v>
       </c>
     </row>
   </sheetData>
@@ -23124,4 +25108,1908 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:BH126"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" t="s">
+        <v>183</v>
+      </c>
+      <c r="L1" t="s">
+        <v>184</v>
+      </c>
+      <c r="M1" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" t="s">
+        <v>191</v>
+      </c>
+      <c r="T1" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" t="s">
+        <v>194</v>
+      </c>
+      <c r="W1" t="s">
+        <v>195</v>
+      </c>
+      <c r="X1" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>199</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>224</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>225</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>228</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>229</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>230</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>231</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="2" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" t="s">
+        <v>239</v>
+      </c>
+      <c r="G2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I2" t="s">
+        <v>242</v>
+      </c>
+      <c r="J2" t="s">
+        <v>243</v>
+      </c>
+      <c r="K2" t="s">
+        <v>244</v>
+      </c>
+      <c r="L2" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" t="s">
+        <v>246</v>
+      </c>
+      <c r="N2" t="s">
+        <v>247</v>
+      </c>
+      <c r="O2" t="s">
+        <v>248</v>
+      </c>
+      <c r="P2" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>250</v>
+      </c>
+      <c r="R2" t="s">
+        <v>251</v>
+      </c>
+      <c r="S2" t="s">
+        <v>252</v>
+      </c>
+      <c r="T2" t="s">
+        <v>253</v>
+      </c>
+      <c r="U2" t="s">
+        <v>254</v>
+      </c>
+      <c r="V2" t="s">
+        <v>255</v>
+      </c>
+      <c r="W2" t="s">
+        <v>256</v>
+      </c>
+      <c r="X2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>258</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>260</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>261</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>262</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>263</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>265</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>266</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>267</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>268</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>269</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>270</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>271</v>
+      </c>
+      <c r="AM2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AN2" t="s">
+        <v>273</v>
+      </c>
+      <c r="AO2" t="s">
+        <v>274</v>
+      </c>
+      <c r="AP2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>276</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AS2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AT2" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AV2" t="s">
+        <v>281</v>
+      </c>
+      <c r="AW2" t="s">
+        <v>282</v>
+      </c>
+      <c r="AX2" t="s">
+        <v>283</v>
+      </c>
+      <c r="AY2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AZ2" t="s">
+        <v>285</v>
+      </c>
+      <c r="BA2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BB2" t="s">
+        <v>287</v>
+      </c>
+      <c r="BC2" t="s">
+        <v>288</v>
+      </c>
+      <c r="BD2" t="s">
+        <v>289</v>
+      </c>
+      <c r="BE2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BF2" t="s">
+        <v>291</v>
+      </c>
+      <c r="BG2" t="s">
+        <v>292</v>
+      </c>
+      <c r="BH2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>233</v>
+      </c>
+      <c r="D3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="4" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>-56.320303516089979</v>
+      </c>
+      <c r="C4">
+        <v>48.145792481508302</v>
+      </c>
+      <c r="D4">
+        <v>-56.320303516089979</v>
+      </c>
+    </row>
+    <row r="5" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>37.315165041387047</v>
+      </c>
+      <c r="C5">
+        <v>48.612673703055897</v>
+      </c>
+      <c r="D5">
+        <v>38.193361251056047</v>
+      </c>
+    </row>
+    <row r="6" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>40.601064054668029</v>
+      </c>
+      <c r="C6">
+        <v>48.815604124701203</v>
+      </c>
+      <c r="D6">
+        <v>41.090547455847002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>42.484660981596051</v>
+      </c>
+      <c r="C7">
+        <v>48.949817366064202</v>
+      </c>
+      <c r="D7">
+        <v>42.683472646772998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>43.776129348576035</v>
+      </c>
+      <c r="C8">
+        <v>49.060551952991702</v>
+      </c>
+      <c r="D8">
+        <v>43.700336082280046</v>
+      </c>
+    </row>
+    <row r="9" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>45.089376880228997</v>
+      </c>
+      <c r="C9">
+        <v>49.1757330635252</v>
+      </c>
+      <c r="D9">
+        <v>44.433766393363044</v>
+      </c>
+    </row>
+    <row r="10" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>56.894881068170037</v>
+      </c>
+      <c r="C10">
+        <v>49.365218429744701</v>
+      </c>
+      <c r="D10">
+        <v>45.052189542353005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>55.673373280466024</v>
+      </c>
+      <c r="C11">
+        <v>50.098814769638601</v>
+      </c>
+      <c r="D11">
+        <v>45.925173698365995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12">
+        <v>54.412011964619012</v>
+      </c>
+      <c r="C12">
+        <v>54.9304372144057</v>
+      </c>
+      <c r="D12">
+        <v>57.162165059149004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>53.206089673936049</v>
+      </c>
+      <c r="C13">
+        <v>55.425871612404798</v>
+      </c>
+      <c r="D13">
+        <v>56.38363116830601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>52.149797020853043</v>
+      </c>
+      <c r="C14">
+        <v>55.634300187658503</v>
+      </c>
+      <c r="D14">
+        <v>55.670979408920005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>51.320852501690013</v>
+      </c>
+      <c r="C15">
+        <v>55.727116490010197</v>
+      </c>
+      <c r="D15">
+        <v>55.072505189478022</v>
+      </c>
+    </row>
+    <row r="16" spans="1:60" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>50.768862454593034</v>
+      </c>
+      <c r="C16">
+        <v>55.772383566195899</v>
+      </c>
+      <c r="D16">
+        <v>54.615427716075999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>50.505080609024048</v>
+      </c>
+      <c r="C17">
+        <v>55.796349564240998</v>
+      </c>
+      <c r="D17">
+        <v>54.288999898732015</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18">
+        <v>50.486556603014037</v>
+      </c>
+      <c r="C18">
+        <v>55.8086893064945</v>
+      </c>
+      <c r="D18">
+        <v>54.018593741952998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19">
+        <v>50.585952936113017</v>
+      </c>
+      <c r="C19">
+        <v>55.812446047327199</v>
+      </c>
+      <c r="D19">
+        <v>53.632743446529048</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20">
+        <v>50.563641799986044</v>
+      </c>
+      <c r="C20">
+        <v>55.807775959673599</v>
+      </c>
+      <c r="D20">
+        <v>52.875355421007043</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>50.143757997453008</v>
+      </c>
+      <c r="C21">
+        <v>55.792974394365203</v>
+      </c>
+      <c r="D21">
+        <v>51.594026176631019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>49.117376072705042</v>
+      </c>
+      <c r="C22">
+        <v>55.762966160706597</v>
+      </c>
+      <c r="D22">
+        <v>50.025565339625018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <v>48.165140835941031</v>
+      </c>
+      <c r="C23">
+        <v>55.693183342525302</v>
+      </c>
+      <c r="D23">
+        <v>48.646492673457033</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24">
+        <v>47.456751181185041</v>
+      </c>
+      <c r="C24">
+        <v>55.321749373769897</v>
+      </c>
+      <c r="D24">
+        <v>47.649799822271007</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>47.029989747703041</v>
+      </c>
+      <c r="C25">
+        <v>55.366938231119697</v>
+      </c>
+      <c r="D25">
+        <v>47.107385261357024</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26">
+        <v>46.802540285885016</v>
+      </c>
+      <c r="C26">
+        <v>55.408946855401503</v>
+      </c>
+      <c r="D26">
+        <v>46.833109645545051</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>46.692073880136036</v>
+      </c>
+      <c r="C27">
+        <v>55.4509797147754</v>
+      </c>
+      <c r="D27">
+        <v>46.704258559644018</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>46.645526377857038</v>
+      </c>
+      <c r="C28">
+        <v>55.494936470403097</v>
+      </c>
+      <c r="D28">
+        <v>46.650516776741028</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29">
+        <v>46.633221371472018</v>
+      </c>
+      <c r="C29">
+        <v>55.542364171471299</v>
+      </c>
+      <c r="D29">
+        <v>46.635361923277003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30">
+        <v>46.639307378232047</v>
+      </c>
+      <c r="C30">
+        <v>55.5948995814366</v>
+      </c>
+      <c r="D30">
+        <v>46.640282659233037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31">
+        <v>46.655418513715006</v>
+      </c>
+      <c r="C31">
+        <v>55.654478496189</v>
+      </c>
+      <c r="D31">
+        <v>46.655906154215018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32">
+        <v>46.677121682465042</v>
+      </c>
+      <c r="C32">
+        <v>55.723466100425902</v>
+      </c>
+      <c r="D32">
+        <v>46.67739400118603</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33">
+        <v>46.702023012936024</v>
+      </c>
+      <c r="C33">
+        <v>55.804774839620897</v>
+      </c>
+      <c r="D33">
+        <v>46.702187670767046</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>46.728811575472037</v>
+      </c>
+      <c r="C34">
+        <v>55.901510072715197</v>
+      </c>
+      <c r="D34">
+        <v>46.728925569354999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35">
+        <v>46.756771741807029</v>
+      </c>
+      <c r="C35">
+        <v>56.017156934529503</v>
+      </c>
+      <c r="D35">
+        <v>46.756860403717042</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36">
+        <v>46.785491867363021</v>
+      </c>
+      <c r="C36">
+        <v>56.156674252547603</v>
+      </c>
+      <c r="D36">
+        <v>46.785567863286019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37">
+        <v>46.814762963355008</v>
+      </c>
+      <c r="C37">
+        <v>56.326876057659298</v>
+      </c>
+      <c r="D37">
+        <v>46.814832626283021</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38">
+        <v>46.844477368891035</v>
+      </c>
+      <c r="C38">
+        <v>56.535382945246901</v>
+      </c>
+      <c r="D38">
+        <v>46.844547031820014</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39">
+        <v>46.874603419006007</v>
+      </c>
+      <c r="C39">
+        <v>56.791190824252404</v>
+      </c>
+      <c r="D39">
+        <v>46.874679414928039</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40">
+        <v>46.905160112679027</v>
+      </c>
+      <c r="C40">
+        <v>57.105691421940598</v>
+      </c>
+      <c r="D40">
+        <v>46.905248774588017</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41">
+        <v>46.936229778826032</v>
+      </c>
+      <c r="C41">
+        <v>57.487552772947403</v>
+      </c>
+      <c r="D41">
+        <v>46.936337439715999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42">
+        <v>46.967932744324003</v>
+      </c>
+      <c r="C42">
+        <v>57.934132872460999</v>
+      </c>
+      <c r="D42">
+        <v>46.968072070180995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43">
+        <v>47.000465331972009</v>
+      </c>
+      <c r="C43">
+        <v>58.450790055737102</v>
+      </c>
+      <c r="D43">
+        <v>47.000636322796026</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44">
+        <v>47.034074528515021</v>
+      </c>
+      <c r="C44">
+        <v>59.048696643164</v>
+      </c>
+      <c r="D44">
+        <v>47.034302516282025</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45">
+        <v>47.069127647579023</v>
+      </c>
+      <c r="C45">
+        <v>59.710389513720003</v>
+      </c>
+      <c r="D45">
+        <v>47.069425298274041</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46">
+        <v>47.106093330681006</v>
+      </c>
+      <c r="C46">
+        <v>60.424902773081698</v>
+      </c>
+      <c r="D46">
+        <v>47.106485976279032</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47">
+        <v>47.145611210167033</v>
+      </c>
+      <c r="C47">
+        <v>61.178644985312502</v>
+      </c>
+      <c r="D47">
+        <v>47.146136848628998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>47.188542573153995</v>
+      </c>
+      <c r="C48">
+        <v>61.943794589116401</v>
+      </c>
+      <c r="D48">
+        <v>47.189239202440035</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49">
+        <v>47.236014692485014</v>
+      </c>
+      <c r="C49">
+        <v>62.694245050053702</v>
+      </c>
+      <c r="D49">
+        <v>47.23695197552405</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50">
+        <v>47.289547486602999</v>
+      </c>
+      <c r="C50">
+        <v>63.407447734421098</v>
+      </c>
+      <c r="D50">
+        <v>47.29079508632401</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51">
+        <v>47.351161180437032</v>
+      </c>
+      <c r="C51">
+        <v>64.064431857052696</v>
+      </c>
+      <c r="D51">
+        <v>47.352814091742005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52">
+        <v>47.423559962213005</v>
+      </c>
+      <c r="C52">
+        <v>64.6508904542371</v>
+      </c>
+      <c r="D52">
+        <v>47.42576384395403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <v>47.510410635173002</v>
+      </c>
+      <c r="C53">
+        <v>65.161392996739906</v>
+      </c>
+      <c r="D53">
+        <v>47.51333647817404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>47.61676692813603</v>
+      </c>
+      <c r="C54">
+        <v>65.599175290248098</v>
+      </c>
+      <c r="D54">
+        <v>47.620642720163005</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>47.749753458798011</v>
+      </c>
+      <c r="C55">
+        <v>65.970299754119907</v>
+      </c>
+      <c r="D55">
+        <v>47.754895849526008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>47.919857664406038</v>
+      </c>
+      <c r="C56">
+        <v>66.287990719499803</v>
+      </c>
+      <c r="D56">
+        <v>47.926665632427046</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>48.143330006301028</v>
+      </c>
+      <c r="C57">
+        <v>66.575722891705695</v>
+      </c>
+      <c r="D57">
+        <v>48.15236718803601</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>48.447161702812025</v>
+      </c>
+      <c r="C58">
+        <v>66.876096865605504</v>
+      </c>
+      <c r="D58">
+        <v>48.459213389456011</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>48.879787488282034</v>
+      </c>
+      <c r="C59">
+        <v>67.280524669171001</v>
+      </c>
+      <c r="D59">
+        <v>48.896044282615037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>49.53627192825104</v>
+      </c>
+      <c r="C60">
+        <v>68.037750706442907</v>
+      </c>
+      <c r="D60">
+        <v>49.558646394312007</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>50.630049569904997</v>
+      </c>
+      <c r="C61">
+        <v>70.173857746195907</v>
+      </c>
+      <c r="D61">
+        <v>50.661993189156021</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>52.889294339716002</v>
+      </c>
+      <c r="C62">
+        <v>80.008341499703505</v>
+      </c>
+      <c r="D62">
+        <v>52.939407317339999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>63.925225822628022</v>
+      </c>
+      <c r="C63">
+        <v>119.80299203067899</v>
+      </c>
+      <c r="D63">
+        <v>64.049333496392023</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>296</v>
+      </c>
+      <c r="C66" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>395.99532559720097</v>
+      </c>
+      <c r="C67" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2</v>
+      </c>
+      <c r="B68">
+        <v>394.348810770103</v>
+      </c>
+      <c r="C68">
+        <v>1711.6953188305599</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>393.16562980506802</v>
+      </c>
+      <c r="C69">
+        <v>1710.04880400346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>4</v>
+      </c>
+      <c r="B70">
+        <v>392.18888330109502</v>
+      </c>
+      <c r="C70">
+        <v>1708.8656230384299</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>5</v>
+      </c>
+      <c r="B71">
+        <v>391.15937411634098</v>
+      </c>
+      <c r="C71">
+        <v>1707.88887653446</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>6</v>
+      </c>
+      <c r="B72">
+        <v>389.39157921361402</v>
+      </c>
+      <c r="C72">
+        <v>1706.8593673497001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7</v>
+      </c>
+      <c r="B73">
+        <v>382.32258996457801</v>
+      </c>
+      <c r="C73">
+        <v>1705.0915724469701</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>8</v>
+      </c>
+      <c r="B74">
+        <v>336.35148034438203</v>
+      </c>
+      <c r="C74">
+        <v>1698.0225831979401</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>9</v>
+      </c>
+      <c r="B75">
+        <v>2172.3092944361701</v>
+      </c>
+      <c r="C75">
+        <v>1652.0514735777399</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>10</v>
+      </c>
+      <c r="B76">
+        <v>2175.7178333714201</v>
+      </c>
+      <c r="C76">
+        <v>1870.3717358291599</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>11</v>
+      </c>
+      <c r="B77">
+        <v>2176.7976116746499</v>
+      </c>
+      <c r="C77">
+        <v>1873.78027476441</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>12</v>
+      </c>
+      <c r="B78">
+        <v>2177.02416200076</v>
+      </c>
+      <c r="C78">
+        <v>1874.8600530676399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>13</v>
+      </c>
+      <c r="B79">
+        <v>2177.0035317531401</v>
+      </c>
+      <c r="C79">
+        <v>1875.08660339375</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>14</v>
+      </c>
+      <c r="B80">
+        <v>2176.97925439139</v>
+      </c>
+      <c r="C80">
+        <v>1875.0659731461301</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>15</v>
+      </c>
+      <c r="B81">
+        <v>2177.05015677453</v>
+      </c>
+      <c r="C81">
+        <v>1875.04169578438</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>16</v>
+      </c>
+      <c r="B82">
+        <v>2177.2590207470198</v>
+      </c>
+      <c r="C82">
+        <v>1875.11259816752</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>17</v>
+      </c>
+      <c r="B83">
+        <v>2177.6308621619401</v>
+      </c>
+      <c r="C83">
+        <v>1875.32146214</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>18</v>
+      </c>
+      <c r="B84">
+        <v>2178.2069283096598</v>
+      </c>
+      <c r="C84">
+        <v>1875.69330355493</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>19</v>
+      </c>
+      <c r="B85">
+        <v>2179.2175150092398</v>
+      </c>
+      <c r="C85">
+        <v>1876.26936970265</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>20</v>
+      </c>
+      <c r="B86">
+        <v>2183.37333738608</v>
+      </c>
+      <c r="C86">
+        <v>1877.27995640223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>21</v>
+      </c>
+      <c r="B87">
+        <v>2286.9424504582998</v>
+      </c>
+      <c r="C87">
+        <v>1881.43577877907</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>22</v>
+      </c>
+      <c r="B88">
+        <v>2287.2540437559701</v>
+      </c>
+      <c r="C88">
+        <v>1881.8671974174899</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>23</v>
+      </c>
+      <c r="B89">
+        <v>2287.69820093115</v>
+      </c>
+      <c r="C89">
+        <v>1882.1787907151599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>24</v>
+      </c>
+      <c r="B90">
+        <v>2288.2856504384299</v>
+      </c>
+      <c r="C90">
+        <v>1882.6229478903399</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>25</v>
+      </c>
+      <c r="B91">
+        <v>2288.9944002315201</v>
+      </c>
+      <c r="C91">
+        <v>1883.21039739762</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>26</v>
+      </c>
+      <c r="B92">
+        <v>2289.7715803451101</v>
+      </c>
+      <c r="C92">
+        <v>1883.91914719071</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>27</v>
+      </c>
+      <c r="B93">
+        <v>2290.52710733398</v>
+      </c>
+      <c r="C93">
+        <v>1884.6963273043</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>28</v>
+      </c>
+      <c r="B94">
+        <v>2291.1336709306502</v>
+      </c>
+      <c r="C94">
+        <v>1885.4518542931801</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>29</v>
+      </c>
+      <c r="B95">
+        <v>2291.4254039069101</v>
+      </c>
+      <c r="C95">
+        <v>1886.05841788984</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>30</v>
+      </c>
+      <c r="B96">
+        <v>2291.1827029593001</v>
+      </c>
+      <c r="C96">
+        <v>1886.3501508661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>31</v>
+      </c>
+      <c r="B97">
+        <v>2290.29600327459</v>
+      </c>
+      <c r="C97">
+        <v>1886.1074499184899</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>32</v>
+      </c>
+      <c r="B98">
+        <v>2288.7647089130401</v>
+      </c>
+      <c r="C98">
+        <v>1885.2207502337801</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>33</v>
+      </c>
+      <c r="B99">
+        <v>2286.3627504988899</v>
+      </c>
+      <c r="C99">
+        <v>1883.6894558722299</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>34</v>
+      </c>
+      <c r="B100">
+        <v>2282.4849672641799</v>
+      </c>
+      <c r="C100">
+        <v>1881.28749745808</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>35</v>
+      </c>
+      <c r="B101">
+        <v>2276.51639202156</v>
+      </c>
+      <c r="C101">
+        <v>1877.40971422337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>36</v>
+      </c>
+      <c r="B102">
+        <v>2267.6198813395599</v>
+      </c>
+      <c r="C102">
+        <v>1871.4411389807599</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>37</v>
+      </c>
+      <c r="B103">
+        <v>2254.1960946983099</v>
+      </c>
+      <c r="C103">
+        <v>1862.54462829876</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>38</v>
+      </c>
+      <c r="B104">
+        <v>2235.36378690326</v>
+      </c>
+      <c r="C104">
+        <v>1849.1208416575</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>39</v>
+      </c>
+      <c r="B105">
+        <v>2214.0298148455099</v>
+      </c>
+      <c r="C105">
+        <v>1830.2885338624501</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>40</v>
+      </c>
+      <c r="B106">
+        <v>2190.1508051312699</v>
+      </c>
+      <c r="C106">
+        <v>1808.9545618047</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>41</v>
+      </c>
+      <c r="B107">
+        <v>2160.5814469808602</v>
+      </c>
+      <c r="C107">
+        <v>1785.07555209047</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>42</v>
+      </c>
+      <c r="B108">
+        <v>2130.2095499062402</v>
+      </c>
+      <c r="C108">
+        <v>1755.50619394006</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>43</v>
+      </c>
+      <c r="B109">
+        <v>2100.4869585388101</v>
+      </c>
+      <c r="C109">
+        <v>1725.1342968654301</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>44</v>
+      </c>
+      <c r="B110">
+        <v>2072.00351532987</v>
+      </c>
+      <c r="C110">
+        <v>1695.41170549801</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>45</v>
+      </c>
+      <c r="B111">
+        <v>2048.19784522483</v>
+      </c>
+      <c r="C111">
+        <v>1666.9282622890601</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>46</v>
+      </c>
+      <c r="B112">
+        <v>2031.1688552271601</v>
+      </c>
+      <c r="C112">
+        <v>1643.12259218402</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>47</v>
+      </c>
+      <c r="B113">
+        <v>2021.79875008358</v>
+      </c>
+      <c r="C113">
+        <v>1626.0936021863499</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>48</v>
+      </c>
+      <c r="B114">
+        <v>2020.39565528464</v>
+      </c>
+      <c r="C114">
+        <v>1616.7234970427701</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>49</v>
+      </c>
+      <c r="B115">
+        <v>2026.99560285809</v>
+      </c>
+      <c r="C115">
+        <v>1615.3204022438299</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>50</v>
+      </c>
+      <c r="B116">
+        <v>2040.5429594427801</v>
+      </c>
+      <c r="C116">
+        <v>1621.9203498172801</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>51</v>
+      </c>
+      <c r="B117">
+        <v>2058.9112509050801</v>
+      </c>
+      <c r="C117">
+        <v>1635.46770640197</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>52</v>
+      </c>
+      <c r="B118">
+        <v>2080.6229293506199</v>
+      </c>
+      <c r="C118">
+        <v>1653.83599786427</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>53</v>
+      </c>
+      <c r="B119">
+        <v>2103.9422338276099</v>
+      </c>
+      <c r="C119">
+        <v>1675.54767630981</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>54</v>
+      </c>
+      <c r="B120">
+        <v>2126.8667729373501</v>
+      </c>
+      <c r="C120">
+        <v>1698.8669807868</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>55</v>
+      </c>
+      <c r="B121">
+        <v>2147.3480289982099</v>
+      </c>
+      <c r="C121">
+        <v>1721.79151989654</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>56</v>
+      </c>
+      <c r="B122">
+        <v>2162.5299477538201</v>
+      </c>
+      <c r="C122">
+        <v>1742.2727759574</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>57</v>
+      </c>
+      <c r="B123">
+        <v>2163.0829740491699</v>
+      </c>
+      <c r="C123">
+        <v>1757.45469471301</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>58</v>
+      </c>
+      <c r="B124">
+        <v>2091.13263948135</v>
+      </c>
+      <c r="C124">
+        <v>1758.00772100836</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>59</v>
+      </c>
+      <c r="B125">
+        <v>1767.60966060018</v>
+      </c>
+      <c r="C125">
+        <v>1686.0573864405401</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>60</v>
+      </c>
+      <c r="B126">
+        <v>2953.0142371537199</v>
+      </c>
+      <c r="C126">
+        <v>1362.53440755937</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>